--- a/www.eia.gov/electricity/monthly/xls/table_4_06_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_06_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
-  <si>
-    <t>Table 4.6.A. Receipts of Coal Delivered for Electricity Generation by State, October 2016 and 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+  <si>
+    <t>Table 4.6.A. Receipts of Coal Delivered for Electricity Generation by State, November 2016 and 2015</t>
   </si>
   <si>
     <t>(Thousand Tons)</t>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1357,25 +1357,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="13">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="D6" s="14">
-        <v>0.35</v>
+        <v>-0.64</v>
       </c>
       <c r="E6" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F6" s="13">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="G6" s="13">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="H6" s="13">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="13">
         <v>1</v>
@@ -1433,13 +1433,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="17">
-        <v>-4.5999999999999999E-2</v>
+        <v>0.19</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H8" s="16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="16">
         <v>1</v>
@@ -1471,13 +1471,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="16">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>15</v>
+        <v>144</v>
+      </c>
+      <c r="D9" s="17">
+        <v>-0.41</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H9" s="16">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1509,19 +1509,19 @@
         <v>18</v>
       </c>
       <c r="B10" s="16">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C10" s="16">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D10" s="17">
-        <v>-0.37</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="16">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F10" s="16">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -1623,13 +1623,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>1599</v>
+        <v>1528</v>
       </c>
       <c r="C13" s="13">
-        <v>2271</v>
+        <v>2297</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.3</v>
+        <v>-0.33</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>1568</v>
+        <v>1503</v>
       </c>
       <c r="H13" s="13">
-        <v>2197</v>
+        <v>2223</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1650,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L13" s="13">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1661,13 +1661,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="16">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D14" s="17">
-        <v>-0.28999999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H14" s="16">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1699,13 +1699,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" s="16">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D15" s="17">
-        <v>1.4999999999999999E-2</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1714,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H15" s="16">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="16">
         <v>33</v>
@@ -1737,13 +1737,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>1469</v>
+        <v>1407</v>
       </c>
       <c r="C16" s="16">
-        <v>2119</v>
+        <v>2090</v>
       </c>
       <c r="D16" s="17">
-        <v>-0.31</v>
+        <v>-0.33</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1752,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>1463</v>
+        <v>1407</v>
       </c>
       <c r="H16" s="16">
-        <v>2079</v>
+        <v>2049</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="16">
-        <v>6</v>
+        <v>0.08</v>
       </c>
       <c r="L16" s="16">
         <v>41</v>
@@ -1775,25 +1775,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>11617</v>
+        <v>11072</v>
       </c>
       <c r="C17" s="13">
-        <v>15455</v>
+        <v>13747</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.25</v>
+        <v>-0.19</v>
       </c>
       <c r="E17" s="13">
-        <v>6973</v>
+        <v>6751</v>
       </c>
       <c r="F17" s="13">
-        <v>8936</v>
+        <v>8236</v>
       </c>
       <c r="G17" s="13">
-        <v>4434</v>
+        <v>4135</v>
       </c>
       <c r="H17" s="13">
-        <v>6294</v>
+        <v>5273</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L17" s="13">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1813,25 +1813,25 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>3418</v>
+        <v>3292</v>
       </c>
       <c r="C18" s="16">
-        <v>4835</v>
+        <v>4562</v>
       </c>
       <c r="D18" s="17">
-        <v>-0.28999999999999998</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E18" s="16">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="F18" s="16">
-        <v>804</v>
+        <v>884</v>
       </c>
       <c r="G18" s="16">
-        <v>2754</v>
+        <v>2590</v>
       </c>
       <c r="H18" s="16">
-        <v>3867</v>
+        <v>3491</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="16">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="L18" s="16">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1851,25 +1851,25 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>2385</v>
+        <v>2318</v>
       </c>
       <c r="C19" s="16">
-        <v>2835</v>
+        <v>2648</v>
       </c>
       <c r="D19" s="17">
-        <v>-0.16</v>
+        <v>-0.12</v>
       </c>
       <c r="E19" s="16">
-        <v>2258</v>
+        <v>2216</v>
       </c>
       <c r="F19" s="16">
-        <v>2609</v>
+        <v>2400</v>
       </c>
       <c r="G19" s="16">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="H19" s="16">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="I19" s="16">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>1914</v>
+        <v>1589</v>
       </c>
       <c r="C20" s="16">
-        <v>3010</v>
+        <v>2490</v>
       </c>
       <c r="D20" s="17">
         <v>-0.36</v>
       </c>
       <c r="E20" s="16">
-        <v>1880</v>
+        <v>1571</v>
       </c>
       <c r="F20" s="16">
-        <v>2992</v>
+        <v>2472</v>
       </c>
       <c r="G20" s="16">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H20" s="16">
         <v>18</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <v>1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1927,25 +1927,25 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>2163</v>
+        <v>2016</v>
       </c>
       <c r="C21" s="16">
-        <v>2843</v>
+        <v>2200</v>
       </c>
       <c r="D21" s="17">
-        <v>-0.24</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E21" s="16">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="F21" s="16">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="G21" s="16">
-        <v>1518</v>
+        <v>1426</v>
       </c>
       <c r="H21" s="16">
-        <v>2183</v>
+        <v>1515</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1965,19 +1965,19 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>1736</v>
+        <v>1857</v>
       </c>
       <c r="C22" s="16">
-        <v>1931</v>
+        <v>1847</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E22" s="16">
-        <v>1698</v>
+        <v>1818</v>
       </c>
       <c r="F22" s="16">
-        <v>1890</v>
+        <v>1818</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>39</v>
       </c>
       <c r="L22" s="16">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2003,19 +2003,19 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>10349</v>
+        <v>9753</v>
       </c>
       <c r="C23" s="13">
-        <v>11596</v>
+        <v>10603</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.11</v>
+        <v>-0.08</v>
       </c>
       <c r="E23" s="13">
-        <v>10237</v>
+        <v>9682</v>
       </c>
       <c r="F23" s="13">
-        <v>11284</v>
+        <v>10330</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
@@ -2024,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J23" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K23" s="13">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="L23" s="13">
-        <v>306</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2041,19 +2041,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>1839</v>
+        <v>1351</v>
       </c>
       <c r="C24" s="16">
-        <v>2057</v>
+        <v>1672</v>
       </c>
       <c r="D24" s="17">
-        <v>-0.11</v>
+        <v>-0.19</v>
       </c>
       <c r="E24" s="16">
-        <v>1734</v>
+        <v>1291</v>
       </c>
       <c r="F24" s="16">
-        <v>1856</v>
+        <v>1498</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -2068,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="16">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="L24" s="16">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2079,19 +2079,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>1491</v>
+        <v>1318</v>
       </c>
       <c r="C25" s="16">
-        <v>1385</v>
+        <v>1150</v>
       </c>
       <c r="D25" s="17">
-        <v>7.6999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="E25" s="16">
-        <v>1491</v>
+        <v>1318</v>
       </c>
       <c r="F25" s="16">
-        <v>1385</v>
+        <v>1150</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2117,19 +2117,19 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="C26" s="16">
-        <v>1456</v>
+        <v>1479</v>
       </c>
       <c r="D26" s="17">
-        <v>-3.7999999999999999E-2</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="E26" s="16">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="F26" s="16">
-        <v>1426</v>
+        <v>1449</v>
       </c>
       <c r="G26" s="16">
         <v>0</v>
@@ -2155,19 +2155,19 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>2817</v>
+        <v>2724</v>
       </c>
       <c r="C27" s="16">
-        <v>3318</v>
+        <v>3131</v>
       </c>
       <c r="D27" s="17">
-        <v>-0.15</v>
+        <v>-0.13</v>
       </c>
       <c r="E27" s="16">
-        <v>2810</v>
+        <v>2713</v>
       </c>
       <c r="F27" s="16">
-        <v>3313</v>
+        <v>3123</v>
       </c>
       <c r="G27" s="16">
         <v>0</v>
@@ -2176,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J27" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K27" s="16">
         <v>0</v>
@@ -2193,19 +2193,19 @@
         <v>36</v>
       </c>
       <c r="B28" s="16">
-        <v>1045</v>
+        <v>1015</v>
       </c>
       <c r="C28" s="16">
-        <v>1435</v>
+        <v>1164</v>
       </c>
       <c r="D28" s="17">
-        <v>-0.27</v>
+        <v>-0.13</v>
       </c>
       <c r="E28" s="16">
-        <v>1045</v>
+        <v>1015</v>
       </c>
       <c r="F28" s="16">
-        <v>1361</v>
+        <v>1103</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="16">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2231,19 +2231,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="16">
-        <v>1685</v>
+        <v>1794</v>
       </c>
       <c r="C29" s="16">
-        <v>1817</v>
+        <v>1880</v>
       </c>
       <c r="D29" s="17">
-        <v>-7.2999999999999995E-2</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E29" s="16">
-        <v>1685</v>
+        <v>1794</v>
       </c>
       <c r="F29" s="16">
-        <v>1817</v>
+        <v>1880</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2269,16 +2269,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="16">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="C30" s="16">
         <v>127</v>
       </c>
       <c r="D30" s="17">
-        <v>-0.44</v>
+        <v>0.22</v>
       </c>
       <c r="E30" s="16">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="F30" s="16">
         <v>127</v>
@@ -2307,25 +2307,25 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>8092</v>
+        <v>8031</v>
       </c>
       <c r="C31" s="13">
-        <v>8793</v>
+        <v>8090</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.08</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E31" s="13">
-        <v>6871</v>
+        <v>6862</v>
       </c>
       <c r="F31" s="13">
-        <v>7684</v>
+        <v>7057</v>
       </c>
       <c r="G31" s="13">
-        <v>1142</v>
+        <v>1111</v>
       </c>
       <c r="H31" s="13">
-        <v>961</v>
+        <v>868</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="13">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="L31" s="13">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2345,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H32" s="16">
         <v>0</v>
@@ -2421,25 +2421,25 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>1548</v>
+        <v>1169</v>
       </c>
       <c r="C34" s="16">
-        <v>1538</v>
+        <v>1443</v>
       </c>
       <c r="D34" s="17">
-        <v>6.0000000000000001E-3</v>
+        <v>-0.19</v>
       </c>
       <c r="E34" s="16">
-        <v>1535</v>
+        <v>1169</v>
       </c>
       <c r="F34" s="16">
-        <v>1493</v>
+        <v>1401</v>
       </c>
       <c r="G34" s="16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H34" s="16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2459,19 +2459,19 @@
         <v>43</v>
       </c>
       <c r="B35" s="16">
-        <v>1676</v>
+        <v>1543</v>
       </c>
       <c r="C35" s="16">
-        <v>1820</v>
+        <v>1533</v>
       </c>
       <c r="D35" s="17">
-        <v>-0.08</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E35" s="16">
-        <v>1651</v>
+        <v>1533</v>
       </c>
       <c r="F35" s="16">
-        <v>1817</v>
+        <v>1513</v>
       </c>
       <c r="G35" s="16">
         <v>0</v>
@@ -2486,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L35" s="16">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2497,13 +2497,13 @@
         <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="C36" s="16">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="D36" s="17">
-        <v>0.34</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="H36" s="16">
-        <v>468</v>
+        <v>379</v>
       </c>
       <c r="I36" s="16">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L36" s="16">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2535,37 +2535,37 @@
         <v>45</v>
       </c>
       <c r="B37" s="16">
-        <v>1163</v>
+        <v>1205</v>
       </c>
       <c r="C37" s="16">
-        <v>1549</v>
+        <v>991</v>
       </c>
       <c r="D37" s="17">
-        <v>-0.25</v>
+        <v>0.22</v>
       </c>
       <c r="E37" s="16">
-        <v>1163</v>
+        <v>1205</v>
       </c>
       <c r="F37" s="16">
-        <v>1491</v>
+        <v>954</v>
       </c>
       <c r="G37" s="16">
         <v>0</v>
       </c>
       <c r="H37" s="16">
+        <v>15</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
         <v>23</v>
-      </c>
-      <c r="I37" s="16">
-        <v>0</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0</v>
-      </c>
-      <c r="K37" s="16">
-        <v>0</v>
-      </c>
-      <c r="L37" s="16">
-        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2573,19 +2573,19 @@
         <v>46</v>
       </c>
       <c r="B38" s="16">
-        <v>266</v>
+        <v>635</v>
       </c>
       <c r="C38" s="16">
-        <v>430</v>
+        <v>667</v>
       </c>
       <c r="D38" s="17">
-        <v>-0.38</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E38" s="16">
-        <v>259</v>
+        <v>632</v>
       </c>
       <c r="F38" s="16">
-        <v>430</v>
+        <v>651</v>
       </c>
       <c r="G38" s="16">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L38" s="16">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2611,25 +2611,25 @@
         <v>47</v>
       </c>
       <c r="B39" s="16">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="C39" s="16">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="D39" s="17">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E39" s="16">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="F39" s="16">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="G39" s="16">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H39" s="16">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I39" s="16">
         <v>0</v>
@@ -2638,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L39" s="16">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2649,25 +2649,25 @@
         <v>48</v>
       </c>
       <c r="B40" s="16">
-        <v>2171</v>
+        <v>2292</v>
       </c>
       <c r="C40" s="16">
-        <v>2418</v>
+        <v>2567</v>
       </c>
       <c r="D40" s="17">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="E40" s="16">
-        <v>1729</v>
+        <v>1877</v>
       </c>
       <c r="F40" s="16">
-        <v>2013</v>
+        <v>2138</v>
       </c>
       <c r="G40" s="16">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="H40" s="16">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="16">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2687,25 +2687,25 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>6347</v>
+        <v>6038</v>
       </c>
       <c r="C41" s="13">
-        <v>6889</v>
+        <v>6235</v>
       </c>
       <c r="D41" s="14">
-        <v>-7.9000000000000001E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>6095</v>
+        <v>5705</v>
       </c>
       <c r="F41" s="13">
-        <v>6658</v>
+        <v>5824</v>
       </c>
       <c r="G41" s="13">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="H41" s="13">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2714,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L41" s="13">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2725,19 +2725,19 @@
         <v>50</v>
       </c>
       <c r="B42" s="16">
-        <v>1443</v>
+        <v>1356</v>
       </c>
       <c r="C42" s="16">
-        <v>1664</v>
+        <v>1680</v>
       </c>
       <c r="D42" s="17">
-        <v>-0.13</v>
+        <v>-0.19</v>
       </c>
       <c r="E42" s="16">
-        <v>1443</v>
+        <v>1356</v>
       </c>
       <c r="F42" s="16">
-        <v>1664</v>
+        <v>1680</v>
       </c>
       <c r="G42" s="16">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>3584</v>
+        <v>3360</v>
       </c>
       <c r="C43" s="16">
-        <v>3786</v>
+        <v>3463</v>
       </c>
       <c r="D43" s="17">
-        <v>-5.2999999999999999E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="E43" s="16">
-        <v>3584</v>
+        <v>3360</v>
       </c>
       <c r="F43" s="16">
-        <v>3786</v>
+        <v>3463</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
@@ -2801,25 +2801,25 @@
         <v>52</v>
       </c>
       <c r="B44" s="16">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C44" s="16">
-        <v>340</v>
+        <v>446</v>
       </c>
       <c r="D44" s="17">
-        <v>0.28999999999999998</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E44" s="16">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="F44" s="16">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="G44" s="16">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="H44" s="16">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="I44" s="16">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>53</v>
       </c>
       <c r="B45" s="16">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C45" s="16">
-        <v>1100</v>
+        <v>647</v>
       </c>
       <c r="D45" s="17">
-        <v>-0.2</v>
+        <v>0.35</v>
       </c>
       <c r="E45" s="16">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="F45" s="16">
-        <v>993</v>
+        <v>539</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -2866,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="16">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L45" s="16">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2877,25 +2877,25 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>11840</v>
+        <v>11043</v>
       </c>
       <c r="C46" s="13">
-        <v>12515</v>
+        <v>11322</v>
       </c>
       <c r="D46" s="14">
-        <v>-5.3999999999999999E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E46" s="13">
-        <v>5804</v>
+        <v>4992</v>
       </c>
       <c r="F46" s="13">
-        <v>6031</v>
+        <v>5963</v>
       </c>
       <c r="G46" s="13">
-        <v>6029</v>
+        <v>6046</v>
       </c>
       <c r="H46" s="13">
-        <v>6439</v>
+        <v>5300</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2904,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L46" s="13">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2915,25 +2915,25 @@
         <v>55</v>
       </c>
       <c r="B47" s="16">
-        <v>1330</v>
+        <v>1198</v>
       </c>
       <c r="C47" s="16">
-        <v>1321</v>
+        <v>994</v>
       </c>
       <c r="D47" s="17">
-        <v>7.0000000000000001E-3</v>
+        <v>0.21</v>
       </c>
       <c r="E47" s="16">
-        <v>1108</v>
+        <v>978</v>
       </c>
       <c r="F47" s="16">
-        <v>1156</v>
+        <v>785</v>
       </c>
       <c r="G47" s="16">
         <v>215</v>
       </c>
       <c r="H47" s="16">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2942,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L47" s="16">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2953,22 +2953,22 @@
         <v>56</v>
       </c>
       <c r="B48" s="16">
-        <v>656</v>
+        <v>699</v>
       </c>
       <c r="C48" s="16">
-        <v>683</v>
+        <v>915</v>
       </c>
       <c r="D48" s="17">
-        <v>-3.9E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="E48" s="16">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F48" s="16">
-        <v>403</v>
+        <v>635</v>
       </c>
       <c r="G48" s="16">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="H48" s="16">
         <v>280</v>
@@ -2991,25 +2991,25 @@
         <v>57</v>
       </c>
       <c r="B49" s="16">
-        <v>1286</v>
+        <v>832</v>
       </c>
       <c r="C49" s="16">
-        <v>1595</v>
+        <v>1698</v>
       </c>
       <c r="D49" s="17">
-        <v>-0.19</v>
+        <v>-0.51</v>
       </c>
       <c r="E49" s="16">
-        <v>1179</v>
+        <v>743</v>
       </c>
       <c r="F49" s="16">
-        <v>1340</v>
+        <v>1552</v>
       </c>
       <c r="G49" s="16">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H49" s="16">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="I49" s="16">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="16">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3029,25 +3029,25 @@
         <v>58</v>
       </c>
       <c r="B50" s="16">
-        <v>8568</v>
+        <v>8314</v>
       </c>
       <c r="C50" s="16">
-        <v>8916</v>
+        <v>7716</v>
       </c>
       <c r="D50" s="17">
-        <v>-3.9E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E50" s="16">
-        <v>3075</v>
+        <v>2802</v>
       </c>
       <c r="F50" s="16">
-        <v>3132</v>
+        <v>2991</v>
       </c>
       <c r="G50" s="16">
-        <v>5493</v>
+        <v>5512</v>
       </c>
       <c r="H50" s="16">
-        <v>5785</v>
+        <v>4725</v>
       </c>
       <c r="I50" s="16">
         <v>0</v>
@@ -3067,25 +3067,25 @@
         <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>8215</v>
+        <v>8118</v>
       </c>
       <c r="C51" s="13">
-        <v>8993</v>
+        <v>8132</v>
       </c>
       <c r="D51" s="14">
-        <v>-8.6999999999999994E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="E51" s="13">
-        <v>7288</v>
+        <v>7274</v>
       </c>
       <c r="F51" s="13">
-        <v>7911</v>
+        <v>7162</v>
       </c>
       <c r="G51" s="13">
-        <v>909</v>
+        <v>843</v>
       </c>
       <c r="H51" s="13">
-        <v>1064</v>
+        <v>969</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L51" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3105,19 +3105,19 @@
         <v>60</v>
       </c>
       <c r="B52" s="16">
-        <v>1529</v>
+        <v>1372</v>
       </c>
       <c r="C52" s="16">
-        <v>1956</v>
+        <v>1938</v>
       </c>
       <c r="D52" s="17">
-        <v>-0.22</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E52" s="16">
-        <v>1529</v>
+        <v>1372</v>
       </c>
       <c r="F52" s="16">
-        <v>1956</v>
+        <v>1938</v>
       </c>
       <c r="G52" s="16">
         <v>0</v>
@@ -3143,19 +3143,19 @@
         <v>61</v>
       </c>
       <c r="B53" s="16">
-        <v>1441</v>
+        <v>1517</v>
       </c>
       <c r="C53" s="16">
-        <v>1209</v>
+        <v>1369</v>
       </c>
       <c r="D53" s="17">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="E53" s="16">
-        <v>1441</v>
+        <v>1517</v>
       </c>
       <c r="F53" s="16">
-        <v>1209</v>
+        <v>1369</v>
       </c>
       <c r="G53" s="16">
         <v>0</v>
@@ -3219,25 +3219,25 @@
         <v>63</v>
       </c>
       <c r="B55" s="16">
-        <v>865</v>
+        <v>803</v>
       </c>
       <c r="C55" s="16">
-        <v>953</v>
+        <v>884</v>
       </c>
       <c r="D55" s="17">
-        <v>-9.1999999999999998E-2</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="E55" s="16">
         <v>0</v>
       </c>
       <c r="F55" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G55" s="16">
-        <v>865</v>
+        <v>803</v>
       </c>
       <c r="H55" s="16">
-        <v>932</v>
+        <v>864</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3257,25 +3257,25 @@
         <v>64</v>
       </c>
       <c r="B56" s="16">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C56" s="16">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="D56" s="17">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="E56" s="16">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="F56" s="16">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G56" s="16">
+        <v>40</v>
+      </c>
+      <c r="H56" s="16">
         <v>44</v>
-      </c>
-      <c r="H56" s="16">
-        <v>45</v>
       </c>
       <c r="I56" s="16">
         <v>0</v>
@@ -3295,19 +3295,19 @@
         <v>65</v>
       </c>
       <c r="B57" s="16">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="C57" s="16">
-        <v>1036</v>
+        <v>1085</v>
       </c>
       <c r="D57" s="17">
-        <v>6.2E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E57" s="16">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="F57" s="16">
-        <v>1036</v>
+        <v>1085</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
@@ -3333,25 +3333,25 @@
         <v>66</v>
       </c>
       <c r="B58" s="16">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="C58" s="16">
-        <v>1448</v>
+        <v>642</v>
       </c>
       <c r="D58" s="17">
-        <v>-0.18</v>
+        <v>0.86</v>
       </c>
       <c r="E58" s="16">
-        <v>1175</v>
+        <v>1197</v>
       </c>
       <c r="F58" s="16">
-        <v>1388</v>
+        <v>623</v>
       </c>
       <c r="G58" s="16">
         <v>0</v>
       </c>
       <c r="H58" s="16">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I58" s="16">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L58" s="16">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3371,25 +3371,25 @@
         <v>67</v>
       </c>
       <c r="B59" s="16">
-        <v>1957</v>
+        <v>2081</v>
       </c>
       <c r="C59" s="16">
-        <v>2238</v>
+        <v>2122</v>
       </c>
       <c r="D59" s="17">
-        <v>-0.13</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E59" s="16">
-        <v>1957</v>
+        <v>2081</v>
       </c>
       <c r="F59" s="16">
-        <v>2193</v>
+        <v>2080</v>
       </c>
       <c r="G59" s="16">
         <v>0</v>
       </c>
       <c r="H59" s="16">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I59" s="16">
         <v>0</v>
@@ -3409,25 +3409,25 @@
         <v>68</v>
       </c>
       <c r="B60" s="13">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="C60" s="13">
-        <v>361</v>
+        <v>428</v>
       </c>
       <c r="D60" s="14">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="E60" s="13">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F60" s="13">
         <v>125</v>
       </c>
       <c r="G60" s="13">
-        <v>363</v>
+        <v>475</v>
       </c>
       <c r="H60" s="13">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="L60" s="13">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3447,37 +3447,37 @@
         <v>69</v>
       </c>
       <c r="B61" s="16">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C61" s="16">
+        <v>76</v>
+      </c>
+      <c r="D61" s="17">
+        <v>-0.43</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0</v>
+      </c>
+      <c r="G61" s="16">
+        <v>0</v>
+      </c>
+      <c r="H61" s="16">
+        <v>0</v>
+      </c>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16">
+        <v>0</v>
+      </c>
+      <c r="K61" s="16">
         <v>44</v>
       </c>
-      <c r="D61" s="17">
-        <v>0.51</v>
-      </c>
-      <c r="E61" s="16">
-        <v>0</v>
-      </c>
-      <c r="F61" s="16">
-        <v>0</v>
-      </c>
-      <c r="G61" s="16">
-        <v>0</v>
-      </c>
-      <c r="H61" s="16">
-        <v>0</v>
-      </c>
-      <c r="I61" s="16">
-        <v>0</v>
-      </c>
-      <c r="J61" s="16">
-        <v>0</v>
-      </c>
-      <c r="K61" s="16">
-        <v>65</v>
-      </c>
       <c r="L61" s="16">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3485,16 +3485,16 @@
         <v>70</v>
       </c>
       <c r="B62" s="16">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C62" s="16">
         <v>125</v>
       </c>
       <c r="D62" s="17">
-        <v>-0.22</v>
+        <v>-0.44</v>
       </c>
       <c r="E62" s="16">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F62" s="16">
         <v>125</v>
@@ -3523,13 +3523,13 @@
         <v>71</v>
       </c>
       <c r="B63" s="16">
-        <v>363</v>
+        <v>475</v>
       </c>
       <c r="C63" s="16">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="D63" s="17">
-        <v>0.88</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E63" s="16">
         <v>0</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="16">
-        <v>363</v>
+        <v>475</v>
       </c>
       <c r="H63" s="16">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3561,25 +3561,25 @@
         <v>72</v>
       </c>
       <c r="B64" s="13">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="C64" s="13">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="D64" s="14">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="E64" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F64" s="13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G64" s="13">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H64" s="13">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3599,19 +3599,19 @@
         <v>73</v>
       </c>
       <c r="B65" s="16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C65" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="17">
-        <v>-0.44</v>
+        <v>-0.51</v>
       </c>
       <c r="E65" s="16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F65" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G65" s="16">
         <v>0</v>
@@ -3637,13 +3637,13 @@
         <v>74</v>
       </c>
       <c r="B66" s="16">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C66" s="16">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D66" s="17">
-        <v>6.0999999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="E66" s="16">
         <v>0</v>
@@ -3652,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="16">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H66" s="16">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="I66" s="16">
         <v>0</v>
@@ -3675,37 +3675,37 @@
         <v>75</v>
       </c>
       <c r="B67" s="13">
-        <v>58752</v>
+        <v>56396</v>
       </c>
       <c r="C67" s="13">
-        <v>67027</v>
+        <v>61257</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.12</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>43418</v>
+        <v>41349</v>
       </c>
       <c r="F67" s="13">
-        <v>48715</v>
+        <v>44830</v>
       </c>
       <c r="G67" s="13">
-        <v>14743</v>
+        <v>14586</v>
       </c>
       <c r="H67" s="13">
-        <v>17340</v>
+        <v>15432</v>
       </c>
       <c r="I67" s="13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J67" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K67" s="13">
-        <v>585</v>
+        <v>451</v>
       </c>
       <c r="L67" s="13">
-        <v>967</v>
+        <v>987</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
